--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="100">
   <si>
     <t>土地坐落</t>
   </si>
@@ -196,6 +196,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>長鴻營造(股）</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t>1’160,000</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1275,13 +1287,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1300,19 +1312,28 @@
       <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1323,13 +1344,22 @@
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -1346,13 +1376,22 @@
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1369,13 +1408,22 @@
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1392,13 +1440,22 @@
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1414,6 +1471,15 @@
       </c>
       <c r="G6" s="2">
         <v>300</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -1434,19 +1500,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1454,22 +1520,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1477,22 +1543,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1500,22 +1566,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1533,22 +1599,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1559,19 +1625,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1582,19 +1648,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1605,19 +1671,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1628,19 +1694,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1651,19 +1717,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
   <si>
     <t>土地坐落</t>
   </si>
@@ -196,6 +196,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -217,7 +220,10 @@
     <t>光惠生物科技(股）</t>
   </si>
   <si>
-    <t>1’160,000</t>
+    <t>1’160000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-02-29</t>
@@ -1287,13 +1293,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1321,19 +1327,22 @@
       <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1345,21 +1354,24 @@
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -1377,21 +1389,24 @@
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1409,21 +1424,24 @@
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2">
+        <v>68</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1441,21 +1459,24 @@
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1473,12 +1494,15 @@
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2">
+        <v>68</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2">
         <v>833</v>
       </c>
     </row>
@@ -1500,19 +1524,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1520,22 +1544,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1543,22 +1567,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1566,22 +1590,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1599,22 +1623,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1625,19 +1649,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1648,19 +1672,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1671,19 +1695,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1694,19 +1718,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1717,19 +1741,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
   <si>
     <t>土地坐落</t>
   </si>
@@ -199,6 +199,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -208,6 +211,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>長鴻營造(股）</t>
   </si>
   <si>
@@ -220,13 +229,19 @@
     <t>光惠生物科技(股）</t>
   </si>
   <si>
-    <t>1’160000</t>
+    <t>1160000</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>tmp28cf1</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1293,13 +1308,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1330,19 +1345,28 @@
       <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1354,24 +1378,33 @@
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
         <v>68</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -1389,24 +1422,33 @@
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>833</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1424,24 +1466,33 @@
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>833</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1459,24 +1510,33 @@
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>833</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1494,16 +1554,25 @@
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>833</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1524,19 +1593,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1544,22 +1613,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1567,22 +1636,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1590,22 +1659,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1623,22 +1692,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1649,19 +1718,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1672,19 +1741,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1695,19 +1764,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1718,19 +1787,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1741,19 +1810,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,9 +20,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>桃園縣大圜鄉大牛稠段倒厝子小段06530000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣大園鄉大牛稠段倒厝子小段06500001地號</t>
+  </si>
+  <si>
+    <t>桃園縣蘆竹鄕南崁廟口段營盤坑小段00370170地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>1083分之198</t>
+  </si>
+  <si>
+    <t>陳根德</t>
+  </si>
+  <si>
+    <t>70年01月29日</t>
+  </si>
+  <si>
+    <t>92年06月13日</t>
+  </si>
+  <si>
+    <t>100年06月15H</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>tmp28cf1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,52 +130,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>桃園縣大圜鄉大牛稠段倒厝子 小段0653-0000地號</t>
-  </si>
-  <si>
-    <t>桃圜縣大園鄉大牛稠段倒厝子 小段0650-0001地號</t>
-  </si>
-  <si>
-    <t>桃園縣蘆竹鄕南崁廟口段營盤 坑小段0037-0170地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>1083分之 198</t>
-  </si>
-  <si>
-    <t>陳根德</t>
-  </si>
-  <si>
-    <t>70年01月 29日</t>
-  </si>
-  <si>
-    <t>92年06月 13日</t>
-  </si>
-  <si>
-    <t>100 年 06 月15 H</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>桃園縣大園鄉大牛稠段倒厝子 小段00237-000建號</t>
-  </si>
-  <si>
-    <t>10000分之 4509</t>
-  </si>
-  <si>
-    <t>92年11月 25日</t>
-  </si>
-  <si>
-    <t>(G地自 建）</t>
+    <t>桃園縣大園鄉大牛稠段倒厝子小段00237000建號</t>
+  </si>
+  <si>
+    <t>10000分之4509</t>
+  </si>
+  <si>
+    <t>92年11月25日</t>
+  </si>
+  <si>
+    <t>(G地自建）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -100,7 +151,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>BMW ACTIVEHYBRID 7L</t>
+    <t>BMWACTIVEHYBRID7L</t>
   </si>
   <si>
     <t>奧迪A5</t>
@@ -109,10 +160,10 @@
     <t>蔡慧敏</t>
   </si>
   <si>
-    <t>99年06月 30闩</t>
-  </si>
-  <si>
-    <t>99年11月 19日</t>
+    <t>99年06月30闩</t>
+  </si>
+  <si>
+    <t>99年11月19日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -130,7 +181,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台新國際商業銀行建北分 行</t>
+    <t>台新國際商業銀行建北分行</t>
   </si>
   <si>
     <t>花旗(台灣)商業銀行桃園</t>
@@ -154,10 +205,10 @@
     <t>聯邦商業銀行桃圜</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司桃 園府前</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃 圜府前</t>
+    <t>中華郵政股份有限公司桃園府前</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃圜府前</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -178,12 +229,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -196,27 +241,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>長鴻營造(股）</t>
   </si>
   <si>
@@ -235,15 +259,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-29</t>
-  </si>
-  <si>
-    <t>tmp28cf1</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -265,22 +280,22 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>第一商業銀行北桃 桃圜縣桃園市三民路</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行桃圜 桃園縣桃圜市中山路</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行桃圜 桃園縣桃圜市中正路</t>
-  </si>
-  <si>
-    <t>98年06月 01日</t>
+    <t>第一商業銀行北桃桃圜縣桃園市三民路</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行桃圜桃園縣桃圜市中山路</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行桃圜桃園縣桃圜市中正路</t>
+  </si>
+  <si>
+    <t>98年06月01日</t>
   </si>
   <si>
     <t>100年5月</t>
   </si>
   <si>
-    <t>93年01月 12日</t>
+    <t>93年01月12日</t>
   </si>
   <si>
     <t>借入現金</t>
@@ -316,7 +331,7 @@
     <t>育嘉建設(有）</t>
   </si>
   <si>
-    <t>桃園縣龜山鄉舊路村9鄰振 興路998號</t>
+    <t>桃園縣龜山鄉舊路村9鄰振興路998號</t>
   </si>
   <si>
     <t>桃園縣桃園市四維街5號</t>
@@ -328,16 +343,16 @@
     <t>桃圜縣桃園市四维街5號</t>
   </si>
   <si>
-    <t>94年03月 16日</t>
-  </si>
-  <si>
-    <t>91年08月 05日</t>
-  </si>
-  <si>
-    <t>92年04月 15曰</t>
-  </si>
-  <si>
-    <t>95年12月 20日</t>
+    <t>94年03月16日</t>
+  </si>
+  <si>
+    <t>91年08月05日</t>
+  </si>
+  <si>
+    <t>92年04月15曰</t>
+  </si>
+  <si>
+    <t>95年12月20日</t>
   </si>
   <si>
     <t>投資</t>
@@ -699,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,83 +742,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1539</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>833</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1083</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>833</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4749</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>16519513</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
+        <v>833</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -821,25 +920,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -847,25 +946,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1171.32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -883,22 +982,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -906,19 +1005,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>4395</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>5500000</v>
@@ -929,19 +1028,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>2200000</v>
@@ -962,22 +1061,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -985,16 +1084,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1006,16 +1105,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
         <v>11.07</v>
@@ -1029,16 +1128,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1050,16 +1149,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>11730</v>
@@ -1073,16 +1172,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1094,16 +1193,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1115,16 +1214,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1136,16 +1235,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1157,16 +1256,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1178,16 +1277,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2">
         <v>1.64</v>
@@ -1201,16 +1300,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1222,16 +1321,16 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1243,16 +1342,16 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1264,16 +1363,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1285,16 +1384,16 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1316,43 +1415,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1360,40 +1459,40 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>833</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
         <v>68</v>
@@ -1404,10 +1503,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>2707676</v>
@@ -1416,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>833</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2">
         <v>69</v>
@@ -1448,10 +1547,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>2212745</v>
@@ -1460,28 +1559,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>833</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
         <v>70</v>
@@ -1492,10 +1591,10 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>592000</v>
@@ -1504,28 +1603,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>833</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
         <v>71</v>
@@ -1536,10 +1635,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>30</v>
@@ -1548,28 +1647,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>833</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2">
         <v>72</v>
@@ -1590,22 +1689,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1613,22 +1712,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1636,22 +1735,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1659,22 +1758,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1692,22 +1791,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1715,22 +1814,22 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1738,22 +1837,22 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1761,22 +1860,22 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1784,22 +1883,22 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1807,22 +1906,22 @@
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -70,21 +70,27 @@
     <t>total</t>
   </si>
   <si>
+    <t>桃園縣大圜鄉大牛稠段倒厝子小段06530000地號</t>
+  </si>
+  <si>
     <t>桃圜縣大園鄉大牛稠段倒厝子小段06500001地號</t>
   </si>
   <si>
     <t>桃園縣蘆竹鄕南崁廟口段營盤坑小段00370170地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>1083分之198</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>陳根德</t>
   </si>
   <si>
+    <t>70年01月29日</t>
+  </si>
+  <si>
     <t>92年06月13日</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>長鴻營造(股）</t>
+  </si>
+  <si>
     <t>景岳生物科技(股）</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
   </si>
   <si>
     <t>光惠生物科技(股）</t>
+  </si>
+  <si>
+    <t>1160000</t>
   </si>
   <si>
     <t>stock</t>
@@ -633,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,107 +703,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1083</v>
+        <v>1539</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>833</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.182825484764543</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>198</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4749</v>
+        <v>1083</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2">
-        <v>16519513</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
         <v>833</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.182825484764543</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4749</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16519513</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2">
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>833</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>4749</v>
       </c>
     </row>
@@ -802,33 +867,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1171.32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1">
-        <v>1171.32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>833</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.4509</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>528.148188</v>
       </c>
     </row>
   </sheetData>
@@ -837,623 +982,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4395</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2200000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>9603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11.07</v>
-      </c>
-      <c r="G2" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>16168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11730</v>
-      </c>
-      <c r="G4" s="2">
-        <v>346035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>6785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>231736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>56812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>653370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="G10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>388230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>61</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>80517</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2707676</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>27076760</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2">
-        <v>833</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2212745</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2">
-        <v>22127450</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2">
-        <v>833</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>592000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5920000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2">
-        <v>833</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2">
-        <v>300</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2">
-        <v>833</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="2">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1463,68 +991,796 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4395</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4395</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="G3" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>16168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11730</v>
+      </c>
+      <c r="G5" s="2">
+        <v>346035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>231736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>56812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>653370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>388230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>61</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>80517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>11600000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2707676</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27076760</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2212745</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2">
+        <v>22127450</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>833</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>592000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5920000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
+        <v>833</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2">
+        <v>300</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
+        <v>833</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="2">
-        <v>20000000</v>
+        <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>112</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2">
         <v>22366025</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1542,114 +1798,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
-        <v>41700000</v>
+        <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
-        <v>500000</v>
+        <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>122</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2">
         <v>1000000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -127,16 +127,19 @@
     <t>(G地自建）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>BMWACTIVEHYBRID7L</t>
   </si>
   <si>
+    <t>奧迪A5</t>
+  </si>
+  <si>
+    <t>蔡慧敏</t>
+  </si>
+  <si>
     <t>99年06月30闩</t>
-  </si>
-  <si>
-    <t>奧迪A5</t>
-  </si>
-  <si>
-    <t>蔡慧敏</t>
   </si>
   <si>
     <t>99年11月19日</t>
@@ -983,38 +986,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>4395</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>4395</v>
@@ -1023,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1031,8 +1055,29 @@
       <c r="G2" s="2">
         <v>5500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -1046,13 +1091,34 @@
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>2200000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1070,13 +1136,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>38</v>
@@ -1091,13 +1157,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
@@ -1112,13 +1178,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
@@ -1135,13 +1201,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
@@ -1156,13 +1222,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>38</v>
@@ -1179,13 +1245,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1200,13 +1266,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
@@ -1221,13 +1287,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>38</v>
@@ -1242,13 +1308,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1263,13 +1329,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>38</v>
@@ -1284,13 +1350,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>38</v>
@@ -1307,13 +1373,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
@@ -1328,13 +1394,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1349,13 +1415,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
@@ -1370,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
@@ -1391,13 +1457,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
@@ -1428,13 +1494,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1466,25 +1532,25 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1510,7 +1576,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -1522,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1554,7 +1620,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1566,13 +1632,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1598,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1610,13 +1676,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1642,7 +1708,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1654,13 +1720,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1696,22 +1762,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1719,22 +1785,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1742,22 +1808,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1765,22 +1831,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1801,19 +1867,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1824,19 +1890,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1847,19 +1913,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1870,19 +1936,19 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1893,19 +1959,19 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1916,19 +1982,19 @@
         <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,9 @@
     <t>(G地自建）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>99年11月19日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台新國際商業銀行建北分行</t>
@@ -952,7 +958,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1038,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>4395</v>
@@ -1047,7 +1053,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1056,7 +1062,7 @@
         <v>5500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1082,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1100,7 +1106,7 @@
         <v>2200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1136,16 +1142,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1157,16 +1163,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1178,16 +1184,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2">
         <v>11.07</v>
@@ -1201,16 +1207,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1222,16 +1228,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2">
         <v>11730</v>
@@ -1245,13 +1251,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1266,16 +1272,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1287,16 +1293,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1308,13 +1314,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1329,16 +1335,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1350,16 +1356,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2">
         <v>1.64</v>
@@ -1373,16 +1379,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1394,13 +1400,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1415,16 +1421,16 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1436,16 +1442,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1457,16 +1463,16 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1494,13 +1500,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1532,25 +1538,25 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1576,10 +1582,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>2707676</v>
@@ -1588,13 +1594,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1620,7 +1626,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1632,13 +1638,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1664,7 +1670,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1676,13 +1682,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1708,7 +1714,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1720,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1762,22 +1768,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1785,22 +1791,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1808,22 +1814,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1831,22 +1837,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1867,19 +1873,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1890,19 +1896,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1913,19 +1919,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1933,22 +1939,22 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1956,22 +1962,22 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1979,22 +1985,22 @@
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -151,61 +151,70 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台新國際商業銀行建北分行</t>
   </si>
   <si>
+    <t>花旗(台灣)商業銀行桃園</t>
+  </si>
+  <si>
+    <t>第一商業銀行北桃</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行桃圜</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行桃園</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行北桃圜</t>
+  </si>
+  <si>
+    <t>H盛國際商業銀行北桃圜</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行桃圜</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃園府前</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃圜府前</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>花旗(台灣)商業銀行桃園</t>
-  </si>
-  <si>
-    <t>第一商業銀行北桃</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行桃圜</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行桃園</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行北桃圜</t>
-  </si>
-  <si>
-    <t>H盛國際商業銀行北桃圜</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行桃圜</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃園府前</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃圜府前</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>長鴻營造(股）</t>
@@ -1134,13 +1143,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1151,332 +1160,646 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>9603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>9603</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>833</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="2">
-        <v>11.07</v>
-      </c>
-      <c r="G3" s="2">
         <v>327</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>833</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>16168</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>833</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2">
-        <v>11730</v>
-      </c>
-      <c r="G5" s="2">
         <v>346035</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>833</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>6785</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>833</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>231736</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>833</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>56812</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>833</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>653370</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>833</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1264</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>833</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="G11" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>833</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>935</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>833</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>1822</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2">
+        <v>833</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>388230</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <v>833</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>3046</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>833</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>80517</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2">
+        <v>833</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1500,13 +1823,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1538,25 +1861,25 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1582,7 +1905,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1594,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1626,7 +1949,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1638,13 +1961,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1670,7 +1993,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1682,13 +2005,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1714,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1726,13 +2049,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1768,22 +2091,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1791,22 +2114,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1814,22 +2137,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1837,22 +2160,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1873,19 +2196,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1896,19 +2219,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1919,19 +2242,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1942,19 +2265,19 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1965,19 +2288,19 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1988,19 +2311,19 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
+++ b/legislator/property/output/normal/陳根德_2012-02-29_財產申報表_tmp28cf1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -235,76 +235,94 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>股票質押借款</t>
   </si>
   <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
     <t>第一商業銀行北桃桃圜縣桃園市三民路</t>
   </si>
   <si>
+    <t>聯邦商業銀行桃圜桃園縣桃圜市中山路</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行桃圜桃園縣桃圜市中正路</t>
+  </si>
+  <si>
     <t>98年06月01日</t>
   </si>
   <si>
+    <t>100年5月</t>
+  </si>
+  <si>
+    <t>93年01月12日</t>
+  </si>
+  <si>
     <t>借入現金</t>
   </si>
   <si>
-    <t>房屋貸款</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行桃圜桃園縣桃圜市中山路</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行桃圜桃園縣桃圜市中正路</t>
-  </si>
-  <si>
-    <t>100年5月</t>
-  </si>
-  <si>
-    <t>93年01月12日</t>
-  </si>
-  <si>
     <t>借人現金</t>
   </si>
   <si>
     <t>房貸</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>坤和雷射品切割(股）</t>
   </si>
   <si>
+    <t>建道營造(股）</t>
+  </si>
+  <si>
+    <t>天天美企業(有）</t>
+  </si>
+  <si>
+    <t>育嘉建設(有）</t>
+  </si>
+  <si>
     <t>桃園縣龜山鄉舊路村9鄰振興路998號</t>
   </si>
   <si>
+    <t>桃園縣桃園市四維街5號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市四維街5號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市四维街5號</t>
+  </si>
+  <si>
     <t>94年03月16日</t>
   </si>
   <si>
+    <t>91年08月05日</t>
+  </si>
+  <si>
+    <t>92年04月15曰</t>
+  </si>
+  <si>
+    <t>95年12月20日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>建道營造(股）</t>
-  </si>
-  <si>
-    <t>天天美企業(有）</t>
-  </si>
-  <si>
-    <t>育嘉建設(有）</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市四維街5號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市四維街5號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市四维街5號</t>
-  </si>
-  <si>
-    <t>91年08月05日</t>
-  </si>
-  <si>
-    <t>92年04月15曰</t>
-  </si>
-  <si>
-    <t>95年12月20日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2083,61 +2101,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1">
-        <v>50000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2149,18 +2209,39 @@
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2172,10 +2253,31 @@
         <v>22366025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>833</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2185,33 +2287,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>117</v>
       </c>
@@ -2219,22 +2342,43 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>118</v>
       </c>
@@ -2242,22 +2386,43 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>119</v>
       </c>
@@ -2265,22 +2430,43 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>833</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>120</v>
       </c>
@@ -2288,22 +2474,43 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
+        <v>833</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>122</v>
       </c>
@@ -2311,19 +2518,40 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
+        <v>833</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
